--- a/HABERMAN/repeated_holdout_cross_val_50_haberman.xlsx
+++ b/HABERMAN/repeated_holdout_cross_val_50_haberman.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Π.Μ.Σ Στατιστική-Χρηματοοικονομικά και Αναλογιστικά Μαθηματικά\ΜΑΘΗΜΑΤΑ 2ου Εξαμήνου\Εφαρμοσμένη Πολυμεταβλητή Ανάλυση και Big Data\Πτυχιακή\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9939964-A966-4ADF-8443-FED0F9DDCD10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F99FA4-81A9-4846-83A1-3DDCA313E2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shannon" sheetId="1" r:id="rId1"/>
@@ -21,24 +21,7 @@
     <sheet name="Kapur" sheetId="6" r:id="rId6"/>
     <sheet name="Kaniadakis" sheetId="7" r:id="rId7"/>
     <sheet name="index" sheetId="8" r:id="rId8"/>
-    <sheet name="Summary" sheetId="9" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Summary!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Summary!$A$2:$A$52</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Summary!$F$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Summary!$F$2:$F$52</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Summary!$G$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Summary!$G$2:$G$52</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Summary!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Summary!$B$2:$B$52</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Summary!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Summary!$C$2:$C$52</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Summary!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Summary!$D$2:$D$52</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Summary!$E$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Summary!$E$2:$E$52</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -55,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="9">
   <si>
     <t>accuracy</t>
   </si>
@@ -83,45 +66,12 @@
   <si>
     <t>seed</t>
   </si>
-  <si>
-    <t>Shannon</t>
-  </si>
-  <si>
-    <t>Renyi</t>
-  </si>
-  <si>
-    <t>Sharma-Mittal</t>
-  </si>
-  <si>
-    <t>Tsallis</t>
-  </si>
-  <si>
-    <t>Sharma-Taneja</t>
-  </si>
-  <si>
-    <t>Kapur</t>
-  </si>
-  <si>
-    <t>Kaniadakis</t>
-  </si>
-  <si>
-    <t>Depth</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Leaves</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -129,37 +79,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="161"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,16 +100,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -201,826 +119,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="1">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="2">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="3">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="4">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="5">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.11</cx:f>
-      </cx:numDim>
-    </cx:data>
-    <cx:data id="6">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Accuracy</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Accuracy</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="boxWhisker" uniqueId="{CE2444C5-739A-43BD-B30B-58617B58B3A4}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>Shannon</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{5C1102EB-F1DF-4031-8797-A3FCEAF92052}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
-              <cx:v>Renyi</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="1"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{6BFC4E43-47DC-4CDE-84DA-FA698D4B6F7D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>Sharma-Mittal</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="2"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{1108D371-12CA-432F-AC52-0D685138C692}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>Tsallis</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="3"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{BEDF96C3-9A05-43A9-8D4F-28AE2F9D016D}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>Sharma-Taneja</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="4"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{C596CF8C-607C-4DF1-B793-249DAB76F24C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.10</cx:f>
-              <cx:v>Kapur</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="5"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-        <cx:series layoutId="boxWhisker" uniqueId="{99148BC0-BC8B-49E7-B2AB-3C82C4B53E58}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
-              <cx:v>Kaniadakis</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="6"/>
-          <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
-            <cx:statistics quartileMethod="exclusive"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0.180000007"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="0.80000000000000004" min="0.5"/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Chart 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F256CDEA-CB27-E53D-6015-F854E5B9E458}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5791200" y="171450"/>
-              <a:ext cx="6690360" cy="3188970"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24090337-BF9B-4FC2-85CF-55023363343B}" name="Table2" displayName="Table2" ref="A1:F52" totalsRowShown="0">
-  <autoFilter ref="A1:F52" xr:uid="{24090337-BF9B-4FC2-85CF-55023363343B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{24090337-BF9B-4FC2-85CF-55023363343B}" name="Table2" displayName="Table2" ref="A1:F51" totalsRowShown="0">
+  <autoFilter ref="A1:F51" xr:uid="{24090337-BF9B-4FC2-85CF-55023363343B}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{48AD6C2C-7983-4269-85FD-C0816D28BC2B}" name="accuracy"/>
@@ -1035,10 +138,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{854483D8-CE73-456F-BEBE-2B92BEDAB602}" name="Table3" displayName="Table3" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{854483D8-CE73-456F-BEBE-2B92BEDAB602}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{854483D8-CE73-456F-BEBE-2B92BEDAB602}" name="Table3" displayName="Table3" ref="A1:G51" totalsRowShown="0">
+  <autoFilter ref="A1:G51" xr:uid="{854483D8-CE73-456F-BEBE-2B92BEDAB602}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{4687BED2-451C-4D1D-A4E0-06E0EB3542E1}" name="accuracy"/>
@@ -1054,10 +157,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3384531-D48F-4A65-B276-41B41DAF7481}" name="Table4" displayName="Table4" ref="A1:H52" totalsRowShown="0">
-  <autoFilter ref="A1:H52" xr:uid="{A3384531-D48F-4A65-B276-41B41DAF7481}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A3384531-D48F-4A65-B276-41B41DAF7481}" name="Table4" displayName="Table4" ref="A1:H51" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{A3384531-D48F-4A65-B276-41B41DAF7481}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{CC6BDE17-5446-4226-988C-0199DD6D320F}" name="accuracy"/>
@@ -1074,10 +177,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{33FB7932-8AE4-49B8-87D6-D8234555376A}" name="Table5" displayName="Table5" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{33FB7932-8AE4-49B8-87D6-D8234555376A}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{33FB7932-8AE4-49B8-87D6-D8234555376A}" name="Table5" displayName="Table5" ref="A1:G51" totalsRowShown="0">
+  <autoFilter ref="A1:G51" xr:uid="{33FB7932-8AE4-49B8-87D6-D8234555376A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B11DF720-DACB-45FB-86A9-7A588361E103}" name="accuracy"/>
@@ -1093,10 +196,10 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AC37562-A4CE-4220-9247-2186DC472BED}" name="Table6" displayName="Table6" ref="A1:H52" totalsRowShown="0">
-  <autoFilter ref="A1:H52" xr:uid="{4AC37562-A4CE-4220-9247-2186DC472BED}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{4AC37562-A4CE-4220-9247-2186DC472BED}" name="Table6" displayName="Table6" ref="A1:H51" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{4AC37562-A4CE-4220-9247-2186DC472BED}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{4330D0D5-A25F-4AF4-97A1-FBD8088E284C}" name="accuracy"/>
@@ -1113,10 +216,10 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD816FE2-1320-48BC-9CC3-E388729AE786}" name="Table7" displayName="Table7" ref="A1:H52" totalsRowShown="0">
-  <autoFilter ref="A1:H52" xr:uid="{FD816FE2-1320-48BC-9CC3-E388729AE786}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{FD816FE2-1320-48BC-9CC3-E388729AE786}" name="Table7" displayName="Table7" ref="A1:H51" totalsRowShown="0">
+  <autoFilter ref="A1:H51" xr:uid="{FD816FE2-1320-48BC-9CC3-E388729AE786}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{99E4E880-0C81-4129-8C4E-CA9523158F91}" name="accuracy"/>
@@ -1133,10 +236,10 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A8EE0F09-B2C1-416C-9A1D-67FDAA1121B6}" name="Table8" displayName="Table8" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{A8EE0F09-B2C1-416C-9A1D-67FDAA1121B6}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G52">
-    <sortCondition ref="A1:A52"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{A8EE0F09-B2C1-416C-9A1D-67FDAA1121B6}" name="Table8" displayName="Table8" ref="A1:G51" totalsRowShown="0">
+  <autoFilter ref="A1:G51" xr:uid="{A8EE0F09-B2C1-416C-9A1D-67FDAA1121B6}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G51">
+    <sortCondition ref="A1:A51"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{1AC75879-6BBB-4454-B6B8-1E86C76C862D}" name="accuracy"/>
@@ -1152,26 +255,10 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{412C752A-336F-42E4-915F-AAE04686367E}" name="Table1" displayName="Table1" ref="A1:A52" totalsRowShown="0">
-  <autoFilter ref="A1:A52" xr:uid="{412C752A-336F-42E4-915F-AAE04686367E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{412C752A-336F-42E4-915F-AAE04686367E}" name="Table1" displayName="Table1" ref="A1:A51" totalsRowShown="0">
+  <autoFilter ref="A1:A51" xr:uid="{412C752A-336F-42E4-915F-AAE04686367E}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{A8633AEF-9EE2-4421-BDDE-301A135EC13E}" name="seed"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1A755C4E-0657-4654-A9A9-BF4D1F167003}" name="Table9" displayName="Table9" ref="A1:G52" totalsRowShown="0">
-  <autoFilter ref="A1:G52" xr:uid="{1A755C4E-0657-4654-A9A9-BF4D1F167003}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D1097B2C-2F47-4BF1-862D-541D1779711B}" name="Shannon"/>
-    <tableColumn id="2" xr3:uid="{FC713808-FF23-4509-87D0-7626409CE6C7}" name="Renyi"/>
-    <tableColumn id="3" xr3:uid="{5989D34C-9FBB-402D-897C-2290B76F500E}" name="Sharma-Mittal"/>
-    <tableColumn id="4" xr3:uid="{1A361AC7-8678-45F8-91BC-46BC534CBC80}" name="Tsallis"/>
-    <tableColumn id="5" xr3:uid="{1AB8AD5B-AF5A-4F76-9D13-0AE8F8E862CD}" name="Sharma-Taneja"/>
-    <tableColumn id="6" xr3:uid="{168D2052-3CF3-4076-B597-EF1586252C65}" name="Kapur"/>
-    <tableColumn id="7" xr3:uid="{50C24815-5480-47E1-93B7-F3256E444775}" name="Kaniadakis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1456,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,10 +916,10 @@
         <v>0.64516129032258096</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>0.76470588235294101</v>
@@ -1841,7 +928,7 @@
         <v>0.75912408759124095</v>
       </c>
       <c r="F19">
-        <v>946</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1849,10 +936,10 @@
         <v>0.64516129032258096</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D20">
         <v>0.76470588235294101</v>
@@ -1861,27 +948,27 @@
         <v>0.75912408759124095</v>
       </c>
       <c r="F20">
-        <v>450</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.64516129032258096</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="B21">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>0.76470588235294101</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="E21">
-        <v>0.75912408759124095</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="F21">
-        <v>40</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1889,19 +976,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>0.82352941176470595</v>
+        <v>0.75</v>
       </c>
       <c r="E22">
-        <v>0.77777777777777801</v>
+        <v>0.76119402985074602</v>
       </c>
       <c r="F22">
-        <v>549</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,19 +996,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23">
-        <v>0.75</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="E23">
-        <v>0.76119402985074602</v>
+        <v>0.76811594202898603</v>
       </c>
       <c r="F23">
-        <v>275</v>
+        <v>559</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1929,19 +1016,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24">
-        <v>0.77941176470588203</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="E24">
-        <v>0.76811594202898603</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="F24">
-        <v>559</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,19 +1036,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B25">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>40</v>
       </c>
       <c r="D25">
-        <v>0.82352941176470595</v>
+        <v>0.75</v>
       </c>
       <c r="E25">
-        <v>0.77777777777777801</v>
+        <v>0.76119402985074602</v>
       </c>
       <c r="F25">
-        <v>468</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1969,19 +1056,19 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>0.75</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="E26">
-        <v>0.76119402985074602</v>
+        <v>0.77142857142857102</v>
       </c>
       <c r="F26">
-        <v>213</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1992,36 +1079,36 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>0.79411764705882304</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="E27">
-        <v>0.77142857142857102</v>
+        <v>0.77464788732394396</v>
       </c>
       <c r="F27">
-        <v>822</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>0.65591397849462396</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="B28">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D28">
-        <v>0.80882352941176505</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="E28">
-        <v>0.77464788732394396</v>
+        <v>0.77697841726618699</v>
       </c>
       <c r="F28">
-        <v>475</v>
+        <v>949</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2029,19 +1116,19 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B29">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C29">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29">
-        <v>0.79411764705882304</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="E29">
-        <v>0.77697841726618699</v>
+        <v>0.773722627737226</v>
       </c>
       <c r="F29">
-        <v>949</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,10 +1136,10 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D30">
         <v>0.77941176470588203</v>
@@ -2061,7 +1148,7 @@
         <v>0.773722627737226</v>
       </c>
       <c r="F30">
-        <v>313</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,19 +1156,19 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C31">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D31">
-        <v>0.77941176470588203</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="E31">
-        <v>0.773722627737226</v>
+        <v>0.77037037037037004</v>
       </c>
       <c r="F31">
-        <v>787</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2089,39 +1176,39 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>0.76470588235294101</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="E32">
-        <v>0.77037037037037004</v>
+        <v>0.78620689655172404</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>0.66666666666666696</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="B33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>0.83823529411764697</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="E33">
-        <v>0.78620689655172404</v>
+        <v>0.77611940298507498</v>
       </c>
       <c r="F33">
-        <v>212</v>
+        <v>644</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2129,19 +1216,19 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B34">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>0.76470588235294101</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="E34">
-        <v>0.77611940298507498</v>
+        <v>0.79452054794520499</v>
       </c>
       <c r="F34">
-        <v>644</v>
+        <v>553</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2149,39 +1236,39 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>41</v>
       </c>
       <c r="D35">
-        <v>0.85294117647058798</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="E35">
-        <v>0.79452054794520499</v>
+        <v>0.78873239436619702</v>
       </c>
       <c r="F35">
-        <v>553</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.67741935483870996</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="B36">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>0.82352941176470595</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="E36">
-        <v>0.78873239436619702</v>
+        <v>0.80272108843537404</v>
       </c>
       <c r="F36">
-        <v>249</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2189,19 +1276,19 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C37">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>0.86764705882352899</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="E37">
-        <v>0.80272108843537404</v>
+        <v>0.80536912751677803</v>
       </c>
       <c r="F37">
-        <v>48</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2209,19 +1296,19 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B38">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D38">
-        <v>0.88235294117647101</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="E38">
-        <v>0.80536912751677803</v>
+        <v>0.79136690647482</v>
       </c>
       <c r="F38">
-        <v>610</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2229,99 +1316,99 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D39">
-        <v>0.80882352941176505</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="E39">
-        <v>0.79136690647482</v>
+        <v>0.78832116788321205</v>
       </c>
       <c r="F39">
-        <v>355</v>
+        <v>546</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.68817204301075297</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>0.79411764705882304</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="E40">
-        <v>0.78832116788321205</v>
+        <v>0.80281690140845097</v>
       </c>
       <c r="F40">
-        <v>546</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.69892473118279597</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="B41">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D41">
-        <v>0.83823529411764697</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="E41">
-        <v>0.80281690140845097</v>
+        <v>0.81879194630872498</v>
       </c>
       <c r="F41">
-        <v>141</v>
+        <v>808</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>0.70967741935483897</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="B42">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D42">
-        <v>0.89705882352941202</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="E42">
-        <v>0.81879194630872498</v>
+        <v>0.811594202898551</v>
       </c>
       <c r="F42">
-        <v>808</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.72043010752688197</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="B43">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D43">
         <v>0.82352941176470595</v>
       </c>
       <c r="E43">
-        <v>0.811594202898551</v>
+        <v>0.81751824817518204</v>
       </c>
       <c r="F43">
-        <v>612</v>
+        <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2329,10 +1416,10 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44">
         <v>0.82352941176470595</v>
@@ -2341,7 +1428,7 @@
         <v>0.81751824817518204</v>
       </c>
       <c r="F44">
-        <v>297</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2349,19 +1436,19 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B45">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D45">
-        <v>0.82352941176470595</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="E45">
-        <v>0.81751824817518204</v>
+        <v>0.82993197278911601</v>
       </c>
       <c r="F45">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2369,19 +1456,19 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D46">
-        <v>0.89705882352941202</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="E46">
-        <v>0.82993197278911601</v>
+        <v>0.82269503546099298</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>908</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2389,59 +1476,59 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C47">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D47">
-        <v>0.85294117647058798</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="E47">
-        <v>0.82269503546099298</v>
+        <v>0.82993197278911601</v>
       </c>
       <c r="F47">
-        <v>908</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B48">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C48">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D48">
-        <v>0.89705882352941202</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="E48">
-        <v>0.82993197278911601</v>
+        <v>0.84</v>
       </c>
       <c r="F48">
-        <v>82</v>
+        <v>747</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>0.92647058823529405</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="E49">
-        <v>0.84</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="F49">
-        <v>747</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2449,7 +1536,7 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B50">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>39</v>
@@ -2461,7 +1548,7 @@
         <v>0.84137931034482805</v>
       </c>
       <c r="F50">
-        <v>697</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2469,38 +1556,18 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B51">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D51">
-        <v>0.89705882352941202</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="E51">
-        <v>0.84137931034482805</v>
+        <v>0.843537414965986</v>
       </c>
       <c r="F51">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B52">
-        <v>19</v>
-      </c>
-      <c r="C52">
-        <v>42</v>
-      </c>
-      <c r="D52">
-        <v>0.91176470588235303</v>
-      </c>
-      <c r="E52">
-        <v>0.843537414965986</v>
-      </c>
-      <c r="F52">
         <v>173</v>
       </c>
     </row>
@@ -2515,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3497,45 +2564,45 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D43">
         <v>24</v>
       </c>
       <c r="E43">
-        <v>0.89705882352941202</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="F43">
-        <v>0.83561643835616395</v>
+        <v>0.83783783783783805</v>
       </c>
       <c r="G43">
-        <v>946</v>
+        <v>747</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B44">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="C44">
         <v>10</v>
       </c>
       <c r="D44">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E44">
-        <v>0.91176470588235303</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="F44">
-        <v>0.83783783783783805</v>
+        <v>0.84563758389261701</v>
       </c>
       <c r="G44">
-        <v>747</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -3543,22 +2610,22 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B45">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D45">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E45">
-        <v>0.92647058823529405</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="F45">
-        <v>0.84563758389261701</v>
+        <v>0.843537414965986</v>
       </c>
       <c r="G45">
-        <v>417</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -3566,27 +2633,27 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E46">
-        <v>0.91176470588235303</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="F46">
-        <v>0.843537414965986</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="G46">
-        <v>808</v>
+        <v>421</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.75268817204301097</v>
+        <v>0.76344086021505397</v>
       </c>
       <c r="B47">
         <v>3.75</v>
@@ -3595,16 +2662,16 @@
         <v>12</v>
       </c>
       <c r="D47">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E47">
-        <v>0.89705882352941202</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="F47">
-        <v>0.84137931034482805</v>
+        <v>0.84285714285714297</v>
       </c>
       <c r="G47">
-        <v>421</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -3612,22 +2679,22 @@
         <v>0.76344086021505397</v>
       </c>
       <c r="B48">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C48">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E48">
-        <v>0.86764705882352899</v>
+        <v>0.98529411764705899</v>
       </c>
       <c r="F48">
-        <v>0.84285714285714297</v>
+        <v>0.85897435897435903</v>
       </c>
       <c r="G48">
-        <v>313</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -3635,45 +2702,45 @@
         <v>0.76344086021505397</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D49">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E49">
-        <v>0.98529411764705899</v>
+        <v>0.97058823529411797</v>
       </c>
       <c r="F49">
-        <v>0.85897435897435903</v>
+        <v>0.85714285714285698</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>610</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.76344086021505397</v>
+        <v>0.77419354838709697</v>
       </c>
       <c r="B50">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>0.97058823529411797</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="F50">
-        <v>0.85714285714285698</v>
+        <v>0.85106382978723405</v>
       </c>
       <c r="G50">
-        <v>610</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -3681,44 +2748,21 @@
         <v>0.77419354838709697</v>
       </c>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E51">
-        <v>0.88235294117647101</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="F51">
-        <v>0.85106382978723405</v>
+        <v>0.85517241379310305</v>
       </c>
       <c r="G51">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.77419354838709697</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>12</v>
-      </c>
-      <c r="D52">
-        <v>26</v>
-      </c>
-      <c r="E52">
-        <v>0.91176470588235303</v>
-      </c>
-      <c r="F52">
-        <v>0.85517241379310305</v>
-      </c>
-      <c r="G52">
         <v>697</v>
       </c>
     </row>
@@ -3733,10 +2777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4815,10 +3859,10 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B42">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="C42">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D42">
         <v>12</v>
@@ -4827,13 +3871,13 @@
         <v>24</v>
       </c>
       <c r="F42">
-        <v>0.91176470588235303</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G42">
-        <v>0.83221476510067105</v>
+        <v>0.82517482517482499</v>
       </c>
       <c r="H42">
-        <v>946</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -4841,7 +3885,7 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B43">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="C43">
         <v>0.25</v>
@@ -4850,16 +3894,16 @@
         <v>12</v>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F43">
-        <v>0.86764705882352899</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="G43">
-        <v>0.82517482517482499</v>
+        <v>0.83443708609271505</v>
       </c>
       <c r="H43">
-        <v>297</v>
+        <v>697</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -4867,7 +3911,7 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B44">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="C44">
         <v>0.25</v>
@@ -4876,16 +3920,16 @@
         <v>12</v>
       </c>
       <c r="E44">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F44">
-        <v>0.92647058823529405</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G44">
-        <v>0.83443708609271505</v>
+        <v>0.82517482517482499</v>
       </c>
       <c r="H44">
-        <v>697</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -4893,51 +3937,51 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B45">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="C45">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D45">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F45">
-        <v>0.86764705882352899</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="G45">
-        <v>0.82517482517482499</v>
+        <v>0.83221476510067105</v>
       </c>
       <c r="H45">
-        <v>610</v>
+        <v>450</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B46">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="C46">
         <v>0.75</v>
       </c>
       <c r="D46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F46">
         <v>0.91176470588235303</v>
       </c>
       <c r="G46">
-        <v>0.83221476510067105</v>
+        <v>0.83783783783783805</v>
       </c>
       <c r="H46">
-        <v>450</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -4945,51 +3989,51 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B47">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>0.75</v>
       </c>
       <c r="D47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F47">
-        <v>0.91176470588235303</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="G47">
-        <v>0.83783783783783805</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="H47">
-        <v>747</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F48">
-        <v>0.88235294117647101</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="G48">
-        <v>0.83333333333333304</v>
+        <v>0.84563758389261701</v>
       </c>
       <c r="H48">
-        <v>612</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -4997,25 +4041,25 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="C49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D49">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F49">
-        <v>0.92647058823529405</v>
+        <v>0.97058823529411797</v>
       </c>
       <c r="G49">
-        <v>0.84563758389261701</v>
+        <v>0.85161290322580696</v>
       </c>
       <c r="H49">
-        <v>417</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -5023,30 +4067,30 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B50">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="C50">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D50">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F50">
-        <v>0.97058823529411797</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="G50">
-        <v>0.85161290322580696</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="H50">
-        <v>5</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.75268817204301097</v>
+        <v>0.76344086021505397</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -5058,41 +4102,15 @@
         <v>12</v>
       </c>
       <c r="E51">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F51">
-        <v>0.89705882352941202</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G51">
-        <v>0.84137931034482805</v>
+        <v>0.84285714285714297</v>
       </c>
       <c r="H51">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>27</v>
-      </c>
-      <c r="F52">
-        <v>0.86764705882352899</v>
-      </c>
-      <c r="G52">
-        <v>0.84285714285714297</v>
-      </c>
-      <c r="H52">
         <v>313</v>
       </c>
     </row>
@@ -5107,10 +4125,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6086,25 +5104,25 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.70967741935483897</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="B43">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="C43">
         <v>17</v>
       </c>
       <c r="D43">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E43">
-        <v>0.86764705882352899</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="F43">
-        <v>0.81379310344827605</v>
+        <v>0.82758620689655205</v>
       </c>
       <c r="G43">
-        <v>946</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -6112,45 +5130,45 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B44">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="C44">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E44">
-        <v>0.88235294117647101</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="F44">
-        <v>0.82758620689655205</v>
+        <v>0.83221476510067105</v>
       </c>
       <c r="G44">
-        <v>908</v>
+        <v>747</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E45">
-        <v>0.91176470588235303</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="F45">
-        <v>0.83221476510067105</v>
+        <v>0.82089552238805996</v>
       </c>
       <c r="G45">
-        <v>747</v>
+        <v>297</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -6158,22 +5176,22 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B46">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D46">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E46">
-        <v>0.80882352941176505</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="F46">
-        <v>0.82089552238805996</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="G46">
-        <v>297</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -6181,45 +5199,45 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B47">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="C47">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E47">
-        <v>0.82352941176470595</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="F47">
-        <v>0.82352941176470595</v>
+        <v>0.82857142857142896</v>
       </c>
       <c r="G47">
-        <v>26</v>
+        <v>612</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B48">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
         <v>14</v>
       </c>
       <c r="D48">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E48">
-        <v>0.85294117647058798</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="F48">
-        <v>0.82857142857142896</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="G48">
-        <v>612</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
@@ -6227,90 +5245,67 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C49">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D49">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E49">
-        <v>0.89705882352941202</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="F49">
-        <v>0.84137931034482805</v>
+        <v>0.84563758389261701</v>
       </c>
       <c r="G49">
-        <v>697</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>0.75268817204301097</v>
+        <v>0.76344086021505397</v>
       </c>
       <c r="B50">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="C50">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D50">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E50">
         <v>0.92647058823529405</v>
       </c>
       <c r="F50">
-        <v>0.84563758389261701</v>
+        <v>0.85135135135135098</v>
       </c>
       <c r="G50">
-        <v>5</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.76344086021505397</v>
+        <v>0.79569892473118298</v>
       </c>
       <c r="B51">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="C51">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E51">
-        <v>0.92647058823529405</v>
+        <v>0.95588235294117696</v>
       </c>
       <c r="F51">
-        <v>0.85135135135135098</v>
+        <v>0.87248322147651003</v>
       </c>
       <c r="G51">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.79569892473118298</v>
-      </c>
-      <c r="B52">
-        <v>2.25</v>
-      </c>
-      <c r="C52">
-        <v>11</v>
-      </c>
-      <c r="D52">
-        <v>30</v>
-      </c>
-      <c r="E52">
-        <v>0.95588235294117696</v>
-      </c>
-      <c r="F52">
-        <v>0.87248322147651003</v>
-      </c>
-      <c r="G52">
         <v>173</v>
       </c>
     </row>
@@ -6325,10 +5320,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6627,16 +5622,16 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B12">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="D12">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>0.82352941176470595</v>
@@ -6645,7 +5640,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="H12">
-        <v>946</v>
+        <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6656,13 +5651,13 @@
         <v>4</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="D13">
         <v>16</v>
       </c>
       <c r="E13">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F13">
         <v>0.82352941176470595</v>
@@ -6671,7 +5666,7 @@
         <v>0.77777777777777801</v>
       </c>
       <c r="H13">
-        <v>549</v>
+        <v>865</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6685,19 +5680,19 @@
         <v>3.75</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>34</v>
       </c>
       <c r="F14">
-        <v>0.82352941176470595</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="G14">
-        <v>0.77777777777777801</v>
+        <v>0.77142857142857102</v>
       </c>
       <c r="H14">
-        <v>865</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6705,25 +5700,25 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E15">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15">
-        <v>0.79411764705882304</v>
+        <v>0.75</v>
       </c>
       <c r="G15">
-        <v>0.77142857142857102</v>
+        <v>0.76119402985074602</v>
       </c>
       <c r="H15">
-        <v>417</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6731,25 +5726,25 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="C16">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="G16">
-        <v>0.76119402985074602</v>
+        <v>0.76811594202898603</v>
       </c>
       <c r="H16">
-        <v>386</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6757,16 +5752,16 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B17">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="C17">
         <v>0.25</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F17">
         <v>0.77941176470588203</v>
@@ -6775,7 +5770,7 @@
         <v>0.76811594202898603</v>
       </c>
       <c r="H17">
-        <v>684</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6783,51 +5778,51 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.77941176470588203</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="G18">
-        <v>0.76811594202898603</v>
+        <v>0.77142857142857102</v>
       </c>
       <c r="H18">
-        <v>450</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>0.65591397849462396</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E19">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F19">
-        <v>0.79411764705882304</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="G19">
-        <v>0.77142857142857102</v>
+        <v>0.78620689655172404</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6835,25 +5830,25 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F20">
-        <v>0.83823529411764697</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="G20">
-        <v>0.78620689655172404</v>
+        <v>0.773722627737226</v>
       </c>
       <c r="H20">
-        <v>559</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6861,30 +5856,30 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C21">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F21">
-        <v>0.77941176470588203</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="G21">
-        <v>0.773722627737226</v>
+        <v>0.780141843971631</v>
       </c>
       <c r="H21">
-        <v>602</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>0.66666666666666696</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="B22">
         <v>0.5</v>
@@ -6893,19 +5888,19 @@
         <v>0.25</v>
       </c>
       <c r="D22">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E22">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F22">
-        <v>0.80882352941176505</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="G22">
-        <v>0.780141843971631</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="H22">
-        <v>475</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6913,25 +5908,25 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E23">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F23">
-        <v>0.79411764705882304</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="G23">
-        <v>0.78260869565217395</v>
+        <v>0.78873239436619702</v>
       </c>
       <c r="H23">
-        <v>251</v>
+        <v>949</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6939,25 +5934,25 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C24">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="D24">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.82352941176470595</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="G24">
-        <v>0.78873239436619702</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="H24">
-        <v>949</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6965,16 +5960,16 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="C25">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F25">
         <v>0.79411764705882304</v>
@@ -6983,7 +5978,7 @@
         <v>0.78260869565217395</v>
       </c>
       <c r="H25">
-        <v>449</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6994,13 +5989,13 @@
         <v>3.75</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>1.25</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F26">
         <v>0.79411764705882304</v>
@@ -7009,7 +6004,7 @@
         <v>0.78260869565217395</v>
       </c>
       <c r="H26">
-        <v>67</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -7017,25 +6012,25 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B27">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="C27">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="D27">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E27">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F27">
-        <v>0.79411764705882304</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="G27">
-        <v>0.78260869565217395</v>
+        <v>0.77611940298507498</v>
       </c>
       <c r="H27">
-        <v>102</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -7043,51 +6038,51 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B28">
-        <v>1.5</v>
+        <v>3.25</v>
       </c>
       <c r="C28">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E28">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>0.76470588235294101</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G28">
-        <v>0.77611940298507498</v>
+        <v>0.79729729729729704</v>
       </c>
       <c r="H28">
-        <v>213</v>
+        <v>610</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>0.67741935483870996</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="B29">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="D29">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E29">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F29">
-        <v>0.86764705882352899</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="G29">
-        <v>0.79729729729729704</v>
+        <v>0.8</v>
       </c>
       <c r="H29">
-        <v>610</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -7104,16 +6099,16 @@
         <v>20</v>
       </c>
       <c r="E30">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30">
-        <v>0.85294117647058798</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="G30">
-        <v>0.8</v>
+        <v>0.79720279720279696</v>
       </c>
       <c r="H30">
-        <v>658</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -7127,19 +6122,19 @@
         <v>0.25</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E31">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31">
-        <v>0.83823529411764697</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="G31">
-        <v>0.79720279720279696</v>
+        <v>0.79136690647482</v>
       </c>
       <c r="H31">
-        <v>787</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -7147,16 +6142,16 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="C32">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E32">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="F32">
         <v>0.80882352941176505</v>
@@ -7165,7 +6160,7 @@
         <v>0.79136690647482</v>
       </c>
       <c r="H32">
-        <v>468</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -7173,30 +6168,30 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B33">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E33">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33">
-        <v>0.80882352941176505</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="G33">
-        <v>0.79136690647482</v>
+        <v>0.80794701986755002</v>
       </c>
       <c r="H33">
-        <v>355</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>0.68817204301075297</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="B34">
         <v>0.5</v>
@@ -7205,19 +6200,19 @@
         <v>0.25</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E34">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F34">
-        <v>0.89705882352941202</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="G34">
-        <v>0.80794701986755002</v>
+        <v>0.79104477611940305</v>
       </c>
       <c r="H34">
-        <v>82</v>
+        <v>797</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -7225,25 +6220,25 @@
         <v>0.69892473118279597</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E35">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F35">
-        <v>0.77941176470588203</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="G35">
-        <v>0.79104477611940305</v>
+        <v>0.80281690140845097</v>
       </c>
       <c r="H35">
-        <v>797</v>
+        <v>141</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -7254,27 +6249,27 @@
         <v>4</v>
       </c>
       <c r="C36">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="D36">
         <v>15</v>
       </c>
       <c r="E36">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F36">
-        <v>0.83823529411764697</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="G36">
-        <v>0.80281690140845097</v>
+        <v>0.79710144927536197</v>
       </c>
       <c r="H36">
-        <v>141</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>0.69892473118279597</v>
+        <v>0.70967741935483897</v>
       </c>
       <c r="B37">
         <v>4</v>
@@ -7283,19 +6278,19 @@
         <v>3.5</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E37">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F37">
-        <v>0.80882352941176505</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G37">
-        <v>0.79710144927536197</v>
+        <v>0.81379310344827605</v>
       </c>
       <c r="H37">
-        <v>822</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -7306,13 +6301,13 @@
         <v>4</v>
       </c>
       <c r="C38">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>0.86764705882352899</v>
@@ -7321,7 +6316,7 @@
         <v>0.81379310344827605</v>
       </c>
       <c r="H38">
-        <v>553</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -7335,10 +6330,10 @@
         <v>3.75</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E39">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F39">
         <v>0.86764705882352899</v>
@@ -7347,12 +6342,12 @@
         <v>0.81379310344827605</v>
       </c>
       <c r="H39">
-        <v>747</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>0.70967741935483897</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="B40">
         <v>4</v>
@@ -7364,16 +6359,16 @@
         <v>18</v>
       </c>
       <c r="E40">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="F40">
-        <v>0.86764705882352899</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="G40">
-        <v>0.81379310344827605</v>
+        <v>0.80597014925373101</v>
       </c>
       <c r="H40">
-        <v>212</v>
+        <v>297</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -7381,25 +6376,25 @@
         <v>0.72043010752688197</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E41">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F41">
-        <v>0.79411764705882304</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="G41">
-        <v>0.80597014925373101</v>
+        <v>0.82191780821917804</v>
       </c>
       <c r="H41">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -7407,25 +6402,25 @@
         <v>0.72043010752688197</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>3.75</v>
       </c>
       <c r="D42">
         <v>20</v>
       </c>
       <c r="E42">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>0.88235294117647101</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G42">
-        <v>0.82191780821917804</v>
+        <v>0.81944444444444398</v>
       </c>
       <c r="H42">
-        <v>313</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -7439,19 +6434,19 @@
         <v>3.75</v>
       </c>
       <c r="D43">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F43">
-        <v>0.86764705882352899</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="G43">
-        <v>0.81944444444444398</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="H43">
-        <v>26</v>
+        <v>908</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -7459,77 +6454,77 @@
         <v>0.72043010752688197</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="C44">
-        <v>3.75</v>
+        <v>0.25</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E44">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F44">
-        <v>0.80882352941176505</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="G44">
-        <v>0.80882352941176505</v>
+        <v>0.81428571428571395</v>
       </c>
       <c r="H44">
-        <v>908</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>0.72043010752688197</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0.25</v>
+        <v>3.25</v>
       </c>
       <c r="D45">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F45">
-        <v>0.83823529411764697</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="G45">
-        <v>0.81428571428571395</v>
+        <v>0.82758620689655205</v>
       </c>
       <c r="H45">
-        <v>40</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B46">
         <v>4</v>
       </c>
       <c r="C46">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="D46">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E46">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F46">
         <v>0.88235294117647101</v>
       </c>
       <c r="G46">
-        <v>0.82758620689655205</v>
+        <v>0.83333333333333304</v>
       </c>
       <c r="H46">
-        <v>173</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -7540,48 +6535,48 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F47">
-        <v>0.88235294117647101</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="G47">
-        <v>0.83333333333333304</v>
+        <v>0.82857142857142896</v>
       </c>
       <c r="H47">
-        <v>612</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B48">
         <v>4</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E48">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F48">
         <v>0.85294117647058798</v>
       </c>
       <c r="G48">
-        <v>0.82857142857142896</v>
+        <v>0.83453237410071901</v>
       </c>
       <c r="H48">
-        <v>546</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -7589,25 +6584,25 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="C49">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="D49">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F49">
-        <v>0.85294117647058798</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="G49">
-        <v>0.83453237410071901</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="H49">
-        <v>275</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -7615,76 +6610,50 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B50">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="C50">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E50">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F50">
-        <v>0.89705882352941202</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="G50">
-        <v>0.84137931034482805</v>
+        <v>0.84563758389261701</v>
       </c>
       <c r="H50">
-        <v>697</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>0.75268817204301097</v>
+        <v>0.78494623655913998</v>
       </c>
       <c r="B51">
         <v>3.75</v>
       </c>
       <c r="C51">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E51">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F51">
         <v>0.92647058823529405</v>
       </c>
       <c r="G51">
-        <v>0.84563758389261701</v>
+        <v>0.86301369863013699</v>
       </c>
       <c r="H51">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.78494623655913998</v>
-      </c>
-      <c r="B52">
-        <v>3.75</v>
-      </c>
-      <c r="C52">
-        <v>1.25</v>
-      </c>
-      <c r="D52">
-        <v>15</v>
-      </c>
-      <c r="E52">
-        <v>40</v>
-      </c>
-      <c r="F52">
-        <v>0.92647058823529405</v>
-      </c>
-      <c r="G52">
-        <v>0.86301369863013699</v>
-      </c>
-      <c r="H52">
         <v>421</v>
       </c>
     </row>
@@ -7699,10 +6668,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8709,19 +7678,19 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <v>0.91176470588235303</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G39">
-        <v>0.83221476510067105</v>
+        <v>0.82517482517482499</v>
       </c>
       <c r="H39">
-        <v>946</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -8729,25 +7698,25 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B40">
-        <v>3.75</v>
+        <v>1.25</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
       <c r="D40">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40">
-        <v>0.86764705882352899</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="G40">
-        <v>0.82517482517482499</v>
+        <v>0.83443708609271505</v>
       </c>
       <c r="H40">
-        <v>275</v>
+        <v>553</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -8755,25 +7724,25 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>1.25</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
       <c r="D41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F41">
-        <v>0.92647058823529405</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="G41">
-        <v>0.83443708609271505</v>
+        <v>0.82517482517482499</v>
       </c>
       <c r="H41">
-        <v>553</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -8781,25 +7750,25 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="C42">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="D42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F42">
-        <v>0.86764705882352899</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="G42">
-        <v>0.82517482517482499</v>
+        <v>0.83221476510067105</v>
       </c>
       <c r="H42">
-        <v>610</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -8807,51 +7776,51 @@
         <v>0.73118279569892497</v>
       </c>
       <c r="B43">
-        <v>3.75</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E43">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43">
-        <v>0.91176470588235303</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="G43">
-        <v>0.83221476510067105</v>
+        <v>0.82758620689655205</v>
       </c>
       <c r="H43">
-        <v>450</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E44">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F44">
-        <v>0.88235294117647101</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="G44">
-        <v>0.82758620689655205</v>
+        <v>0.82089552238805996</v>
       </c>
       <c r="H44">
-        <v>82</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -8859,25 +7828,25 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B45">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="C45">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="D45">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="F45">
-        <v>0.80882352941176505</v>
+        <v>0.94117647058823495</v>
       </c>
       <c r="G45">
-        <v>0.82089552238805996</v>
+        <v>0.84210526315789502</v>
       </c>
       <c r="H45">
-        <v>313</v>
+        <v>808</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -8885,25 +7854,25 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B46">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3.25</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E46">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F46">
-        <v>0.94117647058823495</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="G46">
-        <v>0.84210526315789502</v>
+        <v>0.83783783783783805</v>
       </c>
       <c r="H46">
-        <v>808</v>
+        <v>747</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -8911,51 +7880,51 @@
         <v>0.74193548387096797</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="C47">
-        <v>3.25</v>
+        <v>1.5</v>
       </c>
       <c r="D47">
+        <v>7</v>
+      </c>
+      <c r="E47">
         <v>13</v>
       </c>
-      <c r="E47">
-        <v>25</v>
-      </c>
       <c r="F47">
-        <v>0.91176470588235303</v>
+        <v>0.92647058823529405</v>
       </c>
       <c r="G47">
-        <v>0.83783783783783805</v>
+        <v>0.84</v>
       </c>
       <c r="H47">
-        <v>747</v>
+        <v>822</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B48">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="C48">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F48">
         <v>0.92647058823529405</v>
       </c>
       <c r="G48">
-        <v>0.84</v>
+        <v>0.84563758389261701</v>
       </c>
       <c r="H48">
-        <v>822</v>
+        <v>417</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -8963,25 +7932,25 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="C49">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F49">
-        <v>0.92647058823529405</v>
+        <v>0.95588235294117696</v>
       </c>
       <c r="G49">
-        <v>0.84563758389261701</v>
+        <v>0.84967320261437895</v>
       </c>
       <c r="H49">
-        <v>417</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -8989,25 +7958,25 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B50">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>10</v>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F50">
-        <v>0.95588235294117696</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="G50">
-        <v>0.84967320261437895</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="H50">
-        <v>697</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -9015,16 +7984,16 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B51">
+        <v>2.5</v>
+      </c>
+      <c r="C51">
         <v>1.5</v>
       </c>
-      <c r="C51">
-        <v>2</v>
-      </c>
       <c r="D51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F51">
         <v>0.89705882352941202</v>
@@ -9033,32 +8002,6 @@
         <v>0.84137931034482805</v>
       </c>
       <c r="H51">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B52">
-        <v>2.5</v>
-      </c>
-      <c r="C52">
-        <v>1.5</v>
-      </c>
-      <c r="D52">
-        <v>12</v>
-      </c>
-      <c r="E52">
-        <v>23</v>
-      </c>
-      <c r="F52">
-        <v>0.89705882352941202</v>
-      </c>
-      <c r="G52">
-        <v>0.84137931034482805</v>
-      </c>
-      <c r="H52">
         <v>421</v>
       </c>
     </row>
@@ -9073,10 +8016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9365,22 +8308,22 @@
         <v>0.63440860215053796</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E13">
-        <v>0.79411764705882304</v>
+        <v>0.72058823529411797</v>
       </c>
       <c r="F13">
-        <v>0.76056338028169002</v>
+        <v>0.74242424242424199</v>
       </c>
       <c r="G13">
-        <v>946</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -9388,22 +8331,22 @@
         <v>0.63440860215053796</v>
       </c>
       <c r="B14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E14">
-        <v>0.72058823529411797</v>
+        <v>0.75</v>
       </c>
       <c r="F14">
-        <v>0.74242424242424199</v>
+        <v>0.75</v>
       </c>
       <c r="G14">
-        <v>251</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -9414,19 +8357,19 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>0.75</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>0.75714285714285701</v>
       </c>
       <c r="G15">
-        <v>594</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -9434,22 +8377,22 @@
         <v>0.63440860215053796</v>
       </c>
       <c r="B16">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C16">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>0.77941176470588203</v>
+        <v>0.75</v>
       </c>
       <c r="F16">
-        <v>0.75714285714285701</v>
+        <v>0.75</v>
       </c>
       <c r="G16">
-        <v>102</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -9460,19 +8403,19 @@
         <v>0.6</v>
       </c>
       <c r="C17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17">
         <v>42</v>
       </c>
       <c r="E17">
-        <v>0.75</v>
+        <v>0.70588235294117696</v>
       </c>
       <c r="F17">
-        <v>0.75</v>
+        <v>0.73846153846153895</v>
       </c>
       <c r="G17">
-        <v>602</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -9480,22 +8423,22 @@
         <v>0.63440860215053796</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>0.70588235294117696</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F18">
-        <v>0.73846153846153895</v>
+        <v>0.75714285714285701</v>
       </c>
       <c r="G18">
-        <v>797</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -9503,22 +8446,22 @@
         <v>0.63440860215053796</v>
       </c>
       <c r="B19">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E19">
-        <v>0.77941176470588203</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="F19">
-        <v>0.75714285714285701</v>
+        <v>0.76056338028169002</v>
       </c>
       <c r="G19">
-        <v>684</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -9529,42 +8472,42 @@
         <v>0.8</v>
       </c>
       <c r="C20">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>0.79411764705882304</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F20">
-        <v>0.76056338028169002</v>
+        <v>0.75714285714285701</v>
       </c>
       <c r="G20">
-        <v>48</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>0.63440860215053796</v>
+        <v>0.64516129032258096</v>
       </c>
       <c r="B21">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E21">
-        <v>0.77941176470588203</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="F21">
-        <v>0.75714285714285701</v>
+        <v>0.778523489932886</v>
       </c>
       <c r="G21">
-        <v>485</v>
+        <v>808</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -9575,19 +8518,19 @@
         <v>0.4</v>
       </c>
       <c r="C22">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E22">
-        <v>0.85294117647058798</v>
+        <v>0.73529411764705899</v>
       </c>
       <c r="F22">
-        <v>0.778523489932886</v>
+        <v>0.75187969924812004</v>
       </c>
       <c r="G22">
-        <v>808</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -9595,45 +8538,45 @@
         <v>0.64516129032258096</v>
       </c>
       <c r="B23">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E23">
-        <v>0.73529411764705899</v>
+        <v>0.76470588235294101</v>
       </c>
       <c r="F23">
-        <v>0.75187969924812004</v>
+        <v>0.75912408759124095</v>
       </c>
       <c r="G23">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>0.64516129032258096</v>
+        <v>0.65591397849462396</v>
       </c>
       <c r="B24">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E24">
-        <v>0.76470588235294101</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="F24">
-        <v>0.75912408759124095</v>
+        <v>0.77777777777777801</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>549</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -9641,22 +8584,22 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B25">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>38</v>
       </c>
       <c r="E25">
-        <v>0.82352941176470595</v>
+        <v>0.73529411764705899</v>
       </c>
       <c r="F25">
-        <v>0.77777777777777801</v>
+        <v>0.75757575757575801</v>
       </c>
       <c r="G25">
-        <v>549</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -9664,13 +8607,13 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B26">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0.73529411764705899</v>
@@ -9679,7 +8622,7 @@
         <v>0.75757575757575801</v>
       </c>
       <c r="G26">
-        <v>275</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -9687,22 +8630,22 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B27">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D27">
         <v>43</v>
       </c>
       <c r="E27">
-        <v>0.73529411764705899</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F27">
-        <v>0.75757575757575801</v>
+        <v>0.76811594202898603</v>
       </c>
       <c r="G27">
-        <v>213</v>
+        <v>450</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -9713,10 +8656,10 @@
         <v>0.9</v>
       </c>
       <c r="C28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>0.77941176470588203</v>
@@ -9725,7 +8668,7 @@
         <v>0.76811594202898603</v>
       </c>
       <c r="G28">
-        <v>450</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -9733,22 +8676,22 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B29">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D29">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E29">
-        <v>0.77941176470588203</v>
+        <v>0.79411764705882304</v>
       </c>
       <c r="F29">
-        <v>0.76811594202898603</v>
+        <v>0.77142857142857102</v>
       </c>
       <c r="G29">
-        <v>233</v>
+        <v>822</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -9756,22 +8699,22 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B30">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>0.79411764705882304</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F30">
-        <v>0.77142857142857102</v>
+        <v>0.76811594202898603</v>
       </c>
       <c r="G30">
-        <v>822</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9779,45 +8722,45 @@
         <v>0.65591397849462396</v>
       </c>
       <c r="B31">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D31">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E31">
-        <v>0.77941176470588203</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="F31">
-        <v>0.76811594202898603</v>
+        <v>0.77464788732394396</v>
       </c>
       <c r="G31">
-        <v>612</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>0.65591397849462396</v>
+        <v>0.66666666666666696</v>
       </c>
       <c r="B32">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>0.80882352941176505</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F32">
-        <v>0.77464788732394396</v>
+        <v>0.773722627737226</v>
       </c>
       <c r="G32">
-        <v>475</v>
+        <v>949</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -9825,10 +8768,10 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B33">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D33">
         <v>46</v>
@@ -9840,7 +8783,7 @@
         <v>0.773722627737226</v>
       </c>
       <c r="G33">
-        <v>949</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -9848,13 +8791,13 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D34">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E34">
         <v>0.77941176470588203</v>
@@ -9863,7 +8806,7 @@
         <v>0.773722627737226</v>
       </c>
       <c r="G34">
-        <v>313</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -9874,42 +8817,42 @@
         <v>0.1</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35">
-        <v>0.77941176470588203</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="F35">
-        <v>0.773722627737226</v>
+        <v>0.78620689655172404</v>
       </c>
       <c r="G35">
-        <v>787</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>0.66666666666666696</v>
+        <v>0.67741935483870996</v>
       </c>
       <c r="B36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E36">
-        <v>0.83823529411764697</v>
+        <v>0.85294117647058798</v>
       </c>
       <c r="F36">
-        <v>0.78620689655172404</v>
+        <v>0.79452054794520499</v>
       </c>
       <c r="G36">
-        <v>212</v>
+        <v>553</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -9917,22 +8860,22 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B37">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D37">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37">
-        <v>0.85294117647058798</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="F37">
-        <v>0.79452054794520499</v>
+        <v>0.78571428571428603</v>
       </c>
       <c r="G37">
-        <v>553</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -9940,45 +8883,45 @@
         <v>0.67741935483870996</v>
       </c>
       <c r="B38">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38">
-        <v>0.80882352941176505</v>
+        <v>0.86764705882352899</v>
       </c>
       <c r="F38">
-        <v>0.78571428571428603</v>
+        <v>0.79729729729729704</v>
       </c>
       <c r="G38">
-        <v>249</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>0.67741935483870996</v>
+        <v>0.68817204301075297</v>
       </c>
       <c r="B39">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C39">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E39">
-        <v>0.86764705882352899</v>
+        <v>0.77941176470588203</v>
       </c>
       <c r="F39">
-        <v>0.79729729729729704</v>
+        <v>0.78518518518518499</v>
       </c>
       <c r="G39">
-        <v>610</v>
+        <v>644</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -9986,45 +8929,45 @@
         <v>0.68817204301075297</v>
       </c>
       <c r="B40">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E40">
-        <v>0.77941176470588203</v>
+        <v>0.80882352941176505</v>
       </c>
       <c r="F40">
-        <v>0.78518518518518499</v>
+        <v>0.79136690647482</v>
       </c>
       <c r="G40">
-        <v>644</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>0.68817204301075297</v>
+        <v>0.69892473118279597</v>
       </c>
       <c r="B41">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E41">
-        <v>0.80882352941176505</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="F41">
-        <v>0.79136690647482</v>
+        <v>0.80281690140845097</v>
       </c>
       <c r="G41">
-        <v>355</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10032,45 +8975,45 @@
         <v>0.69892473118279597</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D42">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E42">
-        <v>0.83823529411764697</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="F42">
-        <v>0.80281690140845097</v>
+        <v>0.8</v>
       </c>
       <c r="G42">
-        <v>82</v>
+        <v>546</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>0.69892473118279597</v>
+        <v>0.72043010752688197</v>
       </c>
       <c r="B43">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C43">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D43">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E43">
         <v>0.82352941176470595</v>
       </c>
       <c r="F43">
-        <v>0.8</v>
+        <v>0.811594202898551</v>
       </c>
       <c r="G43">
-        <v>546</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -10078,22 +9021,22 @@
         <v>0.72043010752688197</v>
       </c>
       <c r="B44">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D44">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E44">
-        <v>0.82352941176470595</v>
+        <v>0.88235294117647101</v>
       </c>
       <c r="F44">
-        <v>0.811594202898551</v>
+        <v>0.82191780821917804</v>
       </c>
       <c r="G44">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -10104,19 +9047,19 @@
         <v>0.4</v>
       </c>
       <c r="C45">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D45">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>0.88235294117647101</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="F45">
-        <v>0.82191780821917804</v>
+        <v>0.82432432432432401</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>747</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -10124,79 +9067,79 @@
         <v>0.72043010752688197</v>
       </c>
       <c r="B46">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C46">
         <v>14</v>
       </c>
       <c r="D46">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>0.89705882352941202</v>
+        <v>0.83823529411764697</v>
       </c>
       <c r="F46">
-        <v>0.82432432432432401</v>
+        <v>0.81428571428571395</v>
       </c>
       <c r="G46">
-        <v>747</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>0.72043010752688197</v>
+        <v>0.73118279569892497</v>
       </c>
       <c r="B47">
         <v>0.2</v>
       </c>
       <c r="C47">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D47">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E47">
-        <v>0.83823529411764697</v>
+        <v>0.82352941176470595</v>
       </c>
       <c r="F47">
-        <v>0.81428571428571395</v>
+        <v>0.81751824817518204</v>
       </c>
       <c r="G47">
-        <v>141</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>0.73118279569892497</v>
+        <v>0.74193548387096797</v>
       </c>
       <c r="B48">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C48">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D48">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E48">
-        <v>0.82352941176470595</v>
+        <v>0.89705882352941202</v>
       </c>
       <c r="F48">
-        <v>0.81751824817518204</v>
+        <v>0.83561643835616395</v>
       </c>
       <c r="G48">
-        <v>297</v>
+        <v>908</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>0.74193548387096797</v>
+        <v>0.75268817204301097</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="C49">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>43</v>
@@ -10205,10 +9148,10 @@
         <v>0.89705882352941202</v>
       </c>
       <c r="F49">
-        <v>0.83561643835616395</v>
+        <v>0.84137931034482805</v>
       </c>
       <c r="G49">
-        <v>908</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -10216,13 +9159,13 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B50">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E50">
         <v>0.89705882352941202</v>
@@ -10231,7 +9174,7 @@
         <v>0.84137931034482805</v>
       </c>
       <c r="G50">
-        <v>697</v>
+        <v>421</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -10239,44 +9182,21 @@
         <v>0.75268817204301097</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C51">
         <v>19</v>
       </c>
       <c r="D51">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E51">
-        <v>0.89705882352941202</v>
+        <v>0.91176470588235303</v>
       </c>
       <c r="F51">
-        <v>0.84137931034482805</v>
+        <v>0.843537414965986</v>
       </c>
       <c r="G51">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B52">
-        <v>0.1</v>
-      </c>
-      <c r="C52">
-        <v>19</v>
-      </c>
-      <c r="D52">
-        <v>42</v>
-      </c>
-      <c r="E52">
-        <v>0.91176470588235303</v>
-      </c>
-      <c r="F52">
-        <v>0.843537414965986</v>
-      </c>
-      <c r="G52">
         <v>173</v>
       </c>
     </row>
@@ -10291,10 +9211,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10306,256 +9226,251 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>946</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>549</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>644</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>251</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>275</v>
+        <v>865</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>865</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>553</v>
+        <v>417</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>417</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>297</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>949</v>
+        <v>658</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>658</v>
+        <v>594</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>594</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>449</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>313</v>
+        <v>787</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>787</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>67</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>249</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>26</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>697</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>5</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>559</v>
+        <v>808</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>808</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>102</v>
+        <v>468</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>468</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>602</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>29</v>
+        <v>797</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>797</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>386</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>684</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>213</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>48</v>
+        <v>610</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>610</v>
+        <v>908</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>908</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>450</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>233</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>319</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>95</v>
+        <v>485</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>485</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>355</v>
+        <v>747</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>747</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>141</v>
+        <v>822</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>822</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>62</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>421</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>82</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>612</v>
+        <v>475</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>475</v>
+        <v>173</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>173</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>212</v>
+        <v>546</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
         <v>40</v>
       </c>
     </row>
@@ -10566,1422 +9481,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD07F970-E486-4527-94DD-78525DB78E00}">
-  <dimension ref="A1:P52"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N33" sqref="N33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" customWidth="1"/>
-    <col min="16" max="16" width="10.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="B2">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="C2">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="D2">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="E2">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F2">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G2">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B3">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C3">
-        <v>0.53763440860215095</v>
-      </c>
-      <c r="D3">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E3">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F3">
-        <v>0.53763440860215095</v>
-      </c>
-      <c r="G3">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="B4">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C4">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D4">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E4">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="F4">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="G4">
-        <v>0.68817204301075297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="B5">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="C5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D5">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="E5">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F5">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G5">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B6">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C6">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D6">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E6">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="F6">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G6">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0.58064516129032295</v>
-      </c>
-      <c r="B7">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="C7">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="D7">
-        <v>0.55913978494623695</v>
-      </c>
-      <c r="E7">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F7">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="G7">
-        <v>0.58064516129032295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="B8">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C8">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="D8">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="E8">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="F8">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G8">
-        <v>0.67741935483870996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>0.59139784946236595</v>
-      </c>
-      <c r="B9">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="C9">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="D9">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="E9">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F9">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="G9">
-        <v>0.59139784946236595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="B10">
-        <v>0.77419354838709697</v>
-      </c>
-      <c r="C10">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="D10">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="E10">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="F10">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G10">
-        <v>0.73118279569892497</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B11">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="C11">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="D11">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E11">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F11">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G11">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="B12">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C12">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="D12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E12">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="F12">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G12">
-        <v>0.62365591397849496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="B13">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="C13">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="D13">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="E13">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="F13">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="G13">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="B14">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="C14">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="D14">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="E14">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F14">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="G14">
-        <v>0.59139784946236595</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B15">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="C15">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="D15">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E15">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="F15">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="G15">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B16">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C16">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="D16">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E16">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="F16">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G16">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B17">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="C17">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="D17">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="E17">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F17">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G17">
-        <v>0.62365591397849496</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="B18">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C18">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D18">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="E18">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="F18">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G18">
-        <v>0.67741935483870996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="B19">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C19">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D19">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="E19">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="F19">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="G19">
-        <v>0.72043010752688197</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B20">
-        <v>0.77419354838709697</v>
-      </c>
-      <c r="C20">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="D20">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="E20">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="F20">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="G20">
-        <v>0.75268817204301097</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="B21">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="C21">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="D21">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="E21">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="F21">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G21">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B22">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="C22">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="D22">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="E22">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="F22">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="G22">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="B23">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="C23">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="D23">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="E23">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="F23">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="G23">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="1">
-        <f>AVERAGE(Table2[depth])</f>
-        <v>17.686274509803923</v>
-      </c>
-      <c r="K23" s="1">
-        <f>AVERAGE(Table3[depth])</f>
-        <v>11.803921568627452</v>
-      </c>
-      <c r="L23" s="1">
-        <f>AVERAGE(Table4[depth])</f>
-        <v>12.03921568627451</v>
-      </c>
-      <c r="M23" s="1">
-        <f>AVERAGE(Table5[depth])</f>
-        <v>15.921568627450981</v>
-      </c>
-      <c r="N23" s="1">
-        <f>AVERAGE(Table6[depth])</f>
-        <v>18.294117647058822</v>
-      </c>
-      <c r="O23" s="1">
-        <f>AVERAGE(Table7[depth])</f>
-        <v>12.352941176470589</v>
-      </c>
-      <c r="P23" s="1">
-        <f>AVERAGE(Table8[depth])</f>
-        <v>18.764705882352942</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="B24">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="C24">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="D24">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="E24">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F24">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G24">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J24" s="1">
-        <f>_xlfn.STDEV.S(Table2[depth])</f>
-        <v>3.5804479947539019</v>
-      </c>
-      <c r="K24" s="1">
-        <f>_xlfn.STDEV.S(Table3[depth])</f>
-        <v>2.9530974101315199</v>
-      </c>
-      <c r="L24" s="1">
-        <f>_xlfn.STDEV.S(Table4[depth])</f>
-        <v>2.5531218875230026</v>
-      </c>
-      <c r="M24" s="1">
-        <f>_xlfn.STDEV.S(Table5[depth])</f>
-        <v>3.4283706757286447</v>
-      </c>
-      <c r="N24" s="1">
-        <f>_xlfn.STDEV.S(Table6[depth])</f>
-        <v>2.7949534353692509</v>
-      </c>
-      <c r="O24" s="1">
-        <f>_xlfn.STDEV.S(Table7[depth])</f>
-        <v>3.6596367547163196</v>
-      </c>
-      <c r="P24" s="1">
-        <f>_xlfn.STDEV.S(Table8[depth])</f>
-        <v>3.6088127426848686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B25">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C25">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="D25">
-        <v>0.58064516129032295</v>
-      </c>
-      <c r="E25">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="F25">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G25">
-        <v>0.61290322580645196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="B26">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="C26">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="D26">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="E26">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="F26">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="G26">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C27">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D27">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="E27">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="F27">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="G27">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B28">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="C28">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="D28">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="E28">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="F28">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="G28">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="1">
-        <f>AVERAGE(Table2[leaves])</f>
-        <v>38.450980392156865</v>
-      </c>
-      <c r="K28" s="1">
-        <f>AVERAGE(Table3[leaves])</f>
-        <v>25.333333333333332</v>
-      </c>
-      <c r="L28" s="1">
-        <f>AVERAGE(Table4[leaves])</f>
-        <v>25.490196078431371</v>
-      </c>
-      <c r="M28" s="1">
-        <f>AVERAGE(Table5[leaves])</f>
-        <v>35.96078431372549</v>
-      </c>
-      <c r="N28" s="1">
-        <f>AVERAGE(Table6[leaves])</f>
-        <v>39.294117647058826</v>
-      </c>
-      <c r="O28" s="1">
-        <f>AVERAGE(Table7[leaves])</f>
-        <v>25.254901960784313</v>
-      </c>
-      <c r="P28" s="1">
-        <f>AVERAGE(Table8[leaves])</f>
-        <v>40.235294117647058</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="B29">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="C29">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="D29">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="E29">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F29">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="G29">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="1">
-        <f>_xlfn.STDEV.S(Table2[leaves])</f>
-        <v>4.7426310229247051</v>
-      </c>
-      <c r="K29" s="1">
-        <f>_xlfn.STDEV.S(Table3[leaves])</f>
-        <v>6.6803193536437044</v>
-      </c>
-      <c r="L29" s="1">
-        <f>_xlfn.STDEV.S(Table4[leaves])</f>
-        <v>6.6041579297276298</v>
-      </c>
-      <c r="M29" s="1">
-        <f>_xlfn.STDEV.S(Table5[leaves])</f>
-        <v>5.653178873213645</v>
-      </c>
-      <c r="N29" s="1">
-        <f>_xlfn.STDEV.S(Table6[leaves])</f>
-        <v>5.3377677643264168</v>
-      </c>
-      <c r="O29" s="1">
-        <f>_xlfn.STDEV.S(Table7[leaves])</f>
-        <v>8.6691248399245051</v>
-      </c>
-      <c r="P29" s="1">
-        <f>_xlfn.STDEV.S(Table8[leaves])</f>
-        <v>4.8066130915401084</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B30">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C30">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="D30">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="E30">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F30">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="G30">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B31">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="C31">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="D31">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="E31">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F31">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G31">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="B32">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C32">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D32">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="E32">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="F32">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="G32">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="B33">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="C33">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="D33">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="E33">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="F33">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G33">
-        <v>0.67741935483870996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="B34">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="C34">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="D34">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="E34">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="F34">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G34">
-        <v>0.74193548387096797</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="B35">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="C35">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="D35">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="E35">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F35">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G35">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B36">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C36">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="D36">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E36">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="F36">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="G36">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0.53763440860215095</v>
-      </c>
-      <c r="B37">
-        <v>0.56989247311827995</v>
-      </c>
-      <c r="C37">
-        <v>0.60215053763440896</v>
-      </c>
-      <c r="D37">
-        <v>0.53763440860215095</v>
-      </c>
-      <c r="E37">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="F37">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="G37">
-        <v>0.54838709677419395</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B38">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="C38">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="D38">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="E38">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="F38">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G38">
-        <v>0.61290322580645196</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0.62365591397849496</v>
-      </c>
-      <c r="B39">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C39">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D39">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="E39">
-        <v>0.63440860215053796</v>
-      </c>
-      <c r="F39">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="G39">
-        <v>0.63440860215053796</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="B40">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C40">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="D40">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E40">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="F40">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="G40">
-        <v>0.68817204301075297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="B41">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="C41">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="D41">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="E41">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="F41">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="G41">
-        <v>0.72043010752688197</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="B42">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="C42">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="D42">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E42">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="F42">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="G42">
-        <v>0.72043010752688197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B43">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="C43">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="D43">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E43">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="F43">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="G43">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>0.61290322580645196</v>
-      </c>
-      <c r="B44">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C44">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="D44">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="E44">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="F44">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="G44">
-        <v>0.61290322580645196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B45">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="C45">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="D45">
-        <v>0.76344086021505397</v>
-      </c>
-      <c r="E45">
-        <v>0.78494623655913998</v>
-      </c>
-      <c r="F45">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="G45">
-        <v>0.75268817204301097</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="B46">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="C46">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="D46">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="E46">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="F46">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="G46">
-        <v>0.69892473118279597</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="B47">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="C47">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="D47">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="E47">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="F47">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G47">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="B48">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C48">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="D48">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="E48">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="F48">
-        <v>0.59139784946236595</v>
-      </c>
-      <c r="G48">
-        <v>0.65591397849462396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>0.75268817204301097</v>
-      </c>
-      <c r="B49">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C49">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="D49">
-        <v>0.79569892473118298</v>
-      </c>
-      <c r="E49">
-        <v>0.73118279569892497</v>
-      </c>
-      <c r="F49">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="G49">
-        <v>0.75268817204301097</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B50">
-        <v>0.69892473118279597</v>
-      </c>
-      <c r="C50">
-        <v>0.67741935483870996</v>
-      </c>
-      <c r="D50">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="E50">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="F50">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G50">
-        <v>0.66666666666666696</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="B51">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="C51">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="D51">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="E51">
-        <v>0.74193548387096797</v>
-      </c>
-      <c r="F51">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="G51">
-        <v>0.69892473118279597</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="B52">
-        <v>0.68817204301075297</v>
-      </c>
-      <c r="C52">
-        <v>0.65591397849462396</v>
-      </c>
-      <c r="D52">
-        <v>0.64516129032258096</v>
-      </c>
-      <c r="E52">
-        <v>0.72043010752688197</v>
-      </c>
-      <c r="F52">
-        <v>0.70967741935483897</v>
-      </c>
-      <c r="G52">
-        <v>0.64516129032258096</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:P26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>